--- a/Questions 2.0 (5).xlsx
+++ b/Questions 2.0 (5).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10402"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/josephcampodonico/Desktop/ADDM/CMPINF2100/Publish/CMPINF_2100_project/Leadership-Assessment/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA25E2FC-EC36-E64D-BDB1-92453D60246E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52693859-1845-5E47-9A35-D4FA18B8359A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="880" windowWidth="38400" windowHeight="21600" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="21600" windowHeight="21580" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Questions" sheetId="1" r:id="rId1"/>
@@ -1418,9 +1418,6 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Autocratic Leadership</t>
-  </si>
-  <si>
     <t>High</t>
   </si>
   <si>
@@ -1439,9 +1436,6 @@
     <t>A low score in the autocratic style indicates a leader who prefers a more democratic or collaborative approach. They are likely to involve their team in decision-making and may avoid strict control. They trust their team's capabilities and focus on creating a supportive environment where input is encouraged, which can foster a more creative and inclusive atmosphere but may sometimes struggle with efficiency due to the lack of clear authority.</t>
   </si>
   <si>
-    <t>Democratic Leadership</t>
-  </si>
-  <si>
     <t>A leader with a high score in the democratic style actively seeks input from team members and prioritizes collaboration. They are focused on empowering their team, promoting open communication, and fostering a culture of teamwork. These leaders encourage creativity, value diverse perspectives, and focus on long-term growth, creating an environment where individuals feel highly engaged and motivated. However, decision-making can sometimes be slower due to the need for consensus.</t>
   </si>
   <si>
@@ -1451,9 +1445,6 @@
     <t>A low score in the democratic style suggests that the leader favors a more autocratic or laissez-faire approach. While they may occasionally ask for input, they generally prefer making decisions independently. Communication may be more top-down, and the focus on teamwork and collaboration is minimal. This can lead to disengagement from team members who feel their contributions are undervalued.</t>
   </si>
   <si>
-    <t>Laissez-Faire Leadership</t>
-  </si>
-  <si>
     <t>Leaders who score high in laissez-faire leadership give their team a high degree of autonomy, trusting them to make decisions and manage their work independently. This hands-off approach encourages creativity and innovation, as team members are free to explore new ideas. However, this style can result in inconsistent performance, as the lack of supervision may lead to missed deadlines or a lack of accountability in less motivated teams.</t>
   </si>
   <si>
@@ -1463,9 +1454,6 @@
     <t>A low score in laissez-faire leadership suggests a preference for more direct oversight and involvement. Leaders who score low are likely to provide clear direction, set expectations, and closely monitor performance. While this can improve accountability and structure, it may limit creativity and autonomy within the team, especially if team members are highly skilled and capable of working independently.</t>
   </si>
   <si>
-    <t>Transactional Leadership</t>
-  </si>
-  <si>
     <t>A high score in transactional leadership indicates a leader who prioritizes structure, rules, and performance. They focus on achieving short-term goals through clear expectations and a system of rewards and punishments. This style is effective for maintaining consistency and achieving results, but may stifle creativity and innovation as the focus remains on following processes rather than exploring new possibilities.</t>
   </si>
   <si>
@@ -1475,9 +1463,6 @@
     <t>A low score in transactional leadership suggests that the leader may prefer a more transformational or democratic style. They are likely to focus on long-term goals and the development of their team rather than relying on rewards or punishments for short-term performance. While this can lead to higher employee engagement and innovation, it may create challenges in maintaining consistent performance and meeting immediate objectives.</t>
   </si>
   <si>
-    <t>Transformational Leadership</t>
-  </si>
-  <si>
     <t>Transformational leaders who score high are highly visionary, inspiring their team with a clear, compelling future direction. They empower and develop their team members, encourage innovation, and model the values they expect from others. These leaders foster high levels of motivation, morale, and engagement, creating a dynamic and innovative environment. However, the focus on long-term vision may sometimes result in neglect of short-term objectives or operational details.</t>
   </si>
   <si>
@@ -1487,9 +1472,6 @@
     <t>A low score in transformational leadership indicates that the leader may be more focused on maintaining the status quo and achieving short-term goals rather than fostering innovation and personal development. They may lack the visionary qualities that transformational leaders possess, and as a result, the team may experience lower morale and less engagement in the organization’s long-term mission.</t>
   </si>
   <si>
-    <t>Servant Leadership</t>
-  </si>
-  <si>
     <t>Leaders who score high in servant leadership prioritize the needs and well-being of their team members. They exhibit high levels of empathy, humility, and active listening, focusing on serving others rather than asserting authority. This creates a supportive and nurturing environment where team members feel valued and empowered. However, this selfless approach may sometimes lead to challenges in setting boundaries or making difficult decisions when needed.</t>
   </si>
   <si>
@@ -1499,9 +1481,6 @@
     <t>Leaders with a low score in servant leadership are less likely to prioritize the well-being of their team members. They may focus more on results and organizational success than on providing support or developing their team. While this can lead to efficient outcomes, it may also result in disengagement or burnout among team members who feel undervalued or unsupported.</t>
   </si>
   <si>
-    <t>Charismatic Leadership</t>
-  </si>
-  <si>
     <t>Leaders who score high in charismatic leadership are often seen as influential, magnetic figures who inspire others through their energy, vision, and strong personal presence. They have a compelling ability to motivate and engage their team, creating a sense of excitement and dedication. These leaders are typically excellent communicators and able to rally others around a shared vision, fostering strong loyalty and high morale. However, their influence can sometimes overshadow other leadership qualities, and their reliance on personal charisma may cause challenges in maintaining stability or continuity when they are absent.</t>
   </si>
   <si>
@@ -1511,9 +1490,6 @@
     <t>A low score in charismatic leadership suggests that the leader may not be as naturally influential or able to inspire others through their presence alone. These leaders are likely more focused on pragmatic, task-oriented aspects of leadership, relying on logic, structure, or expertise rather than personal magnetism. While they may still be effective in guiding their team, they might struggle with rallying people around a shared vision or generating the same level of enthusiasm that charismatic leaders typically inspire.</t>
   </si>
   <si>
-    <t>Situational Leadership</t>
-  </si>
-  <si>
     <t>Leaders who score high in situational leadership are adaptable and skilled at adjusting their leadership style based on the needs of their team and the specific situation at hand. They can seamlessly transition between being directive and supportive, offering clear instructions when necessary and providing autonomy when their team is capable. These leaders excel in dynamic environments where flexibility is key, and they can manage diverse teams with varying levels of competence. Their adaptability, however, can sometimes lead to inconsistency if the leader struggles to balance their approach effectively across different team members or situations.</t>
   </si>
   <si>
@@ -1521,6 +1497,30 @@
   </si>
   <si>
     <t>A low score in situational leadership suggests that the leader may prefer a more fixed leadership style, often relying on one approach regardless of the circumstances. They might struggle with adapting to the varying needs of their team members or changing situations, potentially leading to challenges in team engagement or performance. While they may excel in environments requiring a clear and consistent approach, they could face difficulties in situations that demand flexibility or a more tailored leadership style.</t>
+  </si>
+  <si>
+    <t>Autocratic</t>
+  </si>
+  <si>
+    <t>Democratic</t>
+  </si>
+  <si>
+    <t>Laissez-Faire</t>
+  </si>
+  <si>
+    <t>Transactional</t>
+  </si>
+  <si>
+    <t>Transformational</t>
+  </si>
+  <si>
+    <t>Servant</t>
+  </si>
+  <si>
+    <t>Charismatic</t>
+  </si>
+  <si>
+    <t>Situational</t>
   </si>
 </sst>
 </file>
@@ -11534,7 +11534,7 @@
   <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -11556,269 +11556,270 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
+        <v>490</v>
+      </c>
+      <c r="B2" s="7" t="s">
         <v>463</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="C2" s="7" t="s">
         <v>464</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>465</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
-        <v>463</v>
+        <v>490</v>
       </c>
       <c r="B3" s="7" t="s">
+        <v>465</v>
+      </c>
+      <c r="C3" s="7" t="s">
         <v>466</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>467</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
-        <v>463</v>
+        <v>490</v>
       </c>
       <c r="B4" s="7" t="s">
+        <v>467</v>
+      </c>
+      <c r="C4" s="7" t="s">
         <v>468</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>469</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
-        <v>470</v>
+        <v>491</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
+        <v>491</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>465</v>
+      </c>
+      <c r="C6" s="7" t="s">
         <v>470</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>466</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>472</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
-        <v>470</v>
+        <v>491</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
-        <v>474</v>
+        <v>492</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
-        <v>474</v>
+        <v>492</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
+        <v>492</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>467</v>
+      </c>
+      <c r="C10" s="7" t="s">
         <v>474</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>468</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>477</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="s">
-        <v>478</v>
+        <v>493</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
-        <v>478</v>
+        <v>493</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
-        <v>478</v>
+        <v>493</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
-        <v>482</v>
+        <v>494</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
-        <v>482</v>
+        <v>494</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="7" t="s">
-        <v>482</v>
+        <v>494</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="7" t="s">
-        <v>486</v>
+        <v>495</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="7" t="s">
-        <v>486</v>
+        <v>495</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="7" t="s">
-        <v>486</v>
+        <v>495</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="7" t="s">
-        <v>490</v>
+        <v>496</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="7" t="s">
-        <v>490</v>
+        <v>496</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>492</v>
+        <v>485</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="7" t="s">
-        <v>490</v>
+        <v>496</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="7" t="s">
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>495</v>
+        <v>487</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="7" t="s">
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>496</v>
+        <v>488</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="7" t="s">
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>497</v>
+        <v>489</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/Questions 2.0 (5).xlsx
+++ b/Questions 2.0 (5).xlsx
@@ -8,15 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/josephcampodonico/Desktop/ADDM/CMPINF2100/Publish/CMPINF_2100_project/Leadership-Assessment/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52693859-1845-5E47-9A35-D4FA18B8359A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A56ED65-BEA6-D64A-A5C2-FCB4384F7882}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="21600" windowHeight="21580" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="21600" windowHeight="21580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Questions" sheetId="1" r:id="rId1"/>
     <sheet name="SurveyQuestions" sheetId="2" r:id="rId2"/>
     <sheet name="ScoreBasedResponse" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Questions!$A$1:$D$441</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
@@ -278,9 +281,6 @@
     <t>The leader encourages independence by letting team members handle their tasks and decisions.</t>
   </si>
   <si>
-    <t xml:space="preserve"> Authentic Leadership</t>
-  </si>
-  <si>
     <t>The leader openly acknowledges their own strengths and areas for improvement.</t>
   </si>
   <si>
@@ -1416,6 +1416,9 @@
   </si>
   <si>
     <t>Description</t>
+  </si>
+  <si>
+    <t>Autocratic Leadership</t>
   </si>
   <si>
     <t>High</t>
@@ -1821,7 +1824,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B421" sqref="B417:B421"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2921,13 +2926,13 @@
         <v>4</v>
       </c>
       <c r="B77" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D77" s="4" t="s">
         <v>83</v>
-      </c>
-      <c r="C77" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D77" s="4" t="s">
-        <v>84</v>
       </c>
       <c r="G77" s="3"/>
     </row>
@@ -2936,13 +2941,13 @@
         <v>4</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>83</v>
+        <v>462</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D78" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G78" s="3"/>
     </row>
@@ -2951,13 +2956,13 @@
         <v>4</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>83</v>
+        <v>462</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D79" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G79" s="3"/>
     </row>
@@ -2966,13 +2971,13 @@
         <v>4</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>83</v>
+        <v>462</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D80" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G80" s="3"/>
     </row>
@@ -2981,13 +2986,13 @@
         <v>4</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>83</v>
+        <v>462</v>
       </c>
       <c r="C81" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D81" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G81" s="3"/>
     </row>
@@ -2996,13 +3001,13 @@
         <v>4</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>83</v>
+        <v>462</v>
       </c>
       <c r="C82" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D82" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G82" s="3"/>
     </row>
@@ -3011,13 +3016,13 @@
         <v>4</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>83</v>
+        <v>462</v>
       </c>
       <c r="C83" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D83" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G83" s="3"/>
     </row>
@@ -3026,13 +3031,13 @@
         <v>4</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>83</v>
+        <v>462</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D84" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G84" s="3"/>
     </row>
@@ -3041,13 +3046,13 @@
         <v>4</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>83</v>
+        <v>462</v>
       </c>
       <c r="C85" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D85" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G85" s="3"/>
     </row>
@@ -3056,13 +3061,13 @@
         <v>4</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>83</v>
+        <v>462</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D86" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G86" s="3"/>
     </row>
@@ -3071,13 +3076,13 @@
         <v>4</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>83</v>
+        <v>462</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D87" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G87" s="3"/>
     </row>
@@ -3086,13 +3091,13 @@
         <v>4</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>83</v>
+        <v>462</v>
       </c>
       <c r="C88" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D88" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G88" s="3"/>
     </row>
@@ -3101,13 +3106,13 @@
         <v>4</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>83</v>
+        <v>462</v>
       </c>
       <c r="C89" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D89" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G89" s="3"/>
     </row>
@@ -3116,13 +3121,13 @@
         <v>4</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>83</v>
+        <v>462</v>
       </c>
       <c r="C90" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D90" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G90" s="3"/>
     </row>
@@ -3131,13 +3136,13 @@
         <v>4</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>83</v>
+        <v>462</v>
       </c>
       <c r="C91" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D91" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G91" s="3"/>
     </row>
@@ -3146,13 +3151,13 @@
         <v>4</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>83</v>
+        <v>462</v>
       </c>
       <c r="C92" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D92" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="93" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3160,13 +3165,13 @@
         <v>4</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>83</v>
+        <v>462</v>
       </c>
       <c r="C93" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D93" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="94" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3174,13 +3179,13 @@
         <v>4</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>83</v>
+        <v>462</v>
       </c>
       <c r="C94" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D94" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="95" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3188,13 +3193,13 @@
         <v>4</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>83</v>
+        <v>462</v>
       </c>
       <c r="C95" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D95" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="96" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3202,13 +3207,13 @@
         <v>4</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>83</v>
+        <v>462</v>
       </c>
       <c r="C96" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D96" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="97" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3216,13 +3221,13 @@
         <v>4</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>83</v>
+        <v>462</v>
       </c>
       <c r="C97" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="98" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3230,13 +3235,13 @@
         <v>4</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>83</v>
+        <v>462</v>
       </c>
       <c r="C98" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="99" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3244,13 +3249,13 @@
         <v>4</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>83</v>
+        <v>462</v>
       </c>
       <c r="C99" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="100" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3258,13 +3263,13 @@
         <v>4</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>83</v>
+        <v>462</v>
       </c>
       <c r="C100" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="101" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3272,13 +3277,13 @@
         <v>4</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>83</v>
+        <v>462</v>
       </c>
       <c r="C101" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="102" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3286,13 +3291,13 @@
         <v>5</v>
       </c>
       <c r="B102" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D102" s="1" t="s">
         <v>109</v>
-      </c>
-      <c r="C102" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D102" s="1" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="103" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3300,13 +3305,13 @@
         <v>5</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C103" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="104" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3314,13 +3319,13 @@
         <v>5</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C104" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="105" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3328,13 +3333,13 @@
         <v>5</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C105" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="106" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3342,13 +3347,13 @@
         <v>5</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C106" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="107" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3356,13 +3361,13 @@
         <v>5</v>
       </c>
       <c r="B107" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D107" s="1" t="s">
         <v>109</v>
-      </c>
-      <c r="C107" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D107" s="1" t="s">
-        <v>110</v>
       </c>
       <c r="G107" s="3"/>
     </row>
@@ -3371,13 +3376,13 @@
         <v>5</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C108" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G108" s="3"/>
     </row>
@@ -3386,13 +3391,13 @@
         <v>5</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C109" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G109" s="3"/>
     </row>
@@ -3401,13 +3406,13 @@
         <v>5</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C110" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G110" s="3"/>
     </row>
@@ -3416,13 +3421,13 @@
         <v>5</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C111" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G111" s="3"/>
     </row>
@@ -3431,13 +3436,13 @@
         <v>5</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C112" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="113" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3445,13 +3450,13 @@
         <v>5</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C113" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="114" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3459,13 +3464,13 @@
         <v>5</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C114" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="115" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3473,13 +3478,13 @@
         <v>5</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C115" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="116" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3487,13 +3492,13 @@
         <v>5</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C116" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="117" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3501,13 +3506,13 @@
         <v>5</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C117" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="118" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3515,13 +3520,13 @@
         <v>5</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C118" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="119" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3529,13 +3534,13 @@
         <v>5</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C119" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="120" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3543,13 +3548,13 @@
         <v>5</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C120" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="121" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3557,13 +3562,13 @@
         <v>5</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C121" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="122" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3571,13 +3576,13 @@
         <v>5</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C122" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="123" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3585,13 +3590,13 @@
         <v>5</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C123" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="124" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3599,13 +3604,13 @@
         <v>5</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C124" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="125" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3613,13 +3618,13 @@
         <v>5</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C125" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="126" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3627,13 +3632,13 @@
         <v>5</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C126" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="127" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3641,13 +3646,13 @@
         <v>6</v>
       </c>
       <c r="B127" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D127" s="1" t="s">
         <v>130</v>
-      </c>
-      <c r="C127" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D127" s="1" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="128" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3655,13 +3660,13 @@
         <v>6</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C128" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="129" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3669,13 +3674,13 @@
         <v>6</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C129" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="130" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3683,13 +3688,13 @@
         <v>6</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C130" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="131" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3697,13 +3702,13 @@
         <v>6</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C131" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="132" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3711,13 +3716,13 @@
         <v>6</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C132" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G132" s="3"/>
     </row>
@@ -3726,13 +3731,13 @@
         <v>6</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C133" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G133" s="3"/>
     </row>
@@ -3741,13 +3746,13 @@
         <v>6</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C134" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G134" s="3"/>
     </row>
@@ -3756,13 +3761,13 @@
         <v>6</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C135" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G135" s="3"/>
     </row>
@@ -3771,13 +3776,13 @@
         <v>6</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C136" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G136" s="3"/>
     </row>
@@ -3786,13 +3791,13 @@
         <v>6</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C137" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G137" s="3"/>
     </row>
@@ -3801,13 +3806,13 @@
         <v>6</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C138" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G138" s="3"/>
     </row>
@@ -3816,13 +3821,13 @@
         <v>6</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C139" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G139" s="3"/>
     </row>
@@ -3831,13 +3836,13 @@
         <v>6</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C140" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G140" s="3"/>
     </row>
@@ -3846,13 +3851,13 @@
         <v>6</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C141" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G141" s="3"/>
     </row>
@@ -3861,13 +3866,13 @@
         <v>6</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C142" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="143" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3875,13 +3880,13 @@
         <v>6</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C143" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="144" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3889,13 +3894,13 @@
         <v>6</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C144" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="145" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3903,13 +3908,13 @@
         <v>6</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C145" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="146" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3917,13 +3922,13 @@
         <v>6</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C146" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="147" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3931,13 +3936,13 @@
         <v>6</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C147" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="148" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3945,13 +3950,13 @@
         <v>6</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C148" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="149" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3959,13 +3964,13 @@
         <v>6</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C149" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="150" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3973,13 +3978,13 @@
         <v>6</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C150" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="151" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3987,13 +3992,13 @@
         <v>6</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C151" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="152" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4001,13 +4006,13 @@
         <v>7</v>
       </c>
       <c r="B152" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C152" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D152" s="1" t="s">
         <v>156</v>
-      </c>
-      <c r="C152" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D152" s="1" t="s">
-        <v>157</v>
       </c>
       <c r="G152" s="3"/>
     </row>
@@ -4016,13 +4021,13 @@
         <v>7</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C153" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D153" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G153" s="3"/>
     </row>
@@ -4031,13 +4036,13 @@
         <v>7</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C154" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D154" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G154" s="3"/>
     </row>
@@ -4046,13 +4051,13 @@
         <v>7</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C155" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D155" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G155" s="3"/>
     </row>
@@ -4061,13 +4066,13 @@
         <v>7</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C156" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D156" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G156" s="3"/>
     </row>
@@ -4076,13 +4081,13 @@
         <v>7</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C157" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D157" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="158" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4090,13 +4095,13 @@
         <v>7</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C158" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D158" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="159" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4104,13 +4109,13 @@
         <v>7</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C159" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D159" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="160" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4118,13 +4123,13 @@
         <v>7</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C160" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D160" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="161" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4132,13 +4137,13 @@
         <v>7</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C161" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D161" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="162" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4146,13 +4151,13 @@
         <v>7</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C162" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D162" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="163" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4160,13 +4165,13 @@
         <v>7</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C163" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D163" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="164" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4174,13 +4179,13 @@
         <v>7</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C164" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D164" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="165" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4188,13 +4193,13 @@
         <v>7</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C165" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D165" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="166" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4202,13 +4207,13 @@
         <v>7</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C166" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="167" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4216,13 +4221,13 @@
         <v>7</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C167" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D167" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="168" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4230,13 +4235,13 @@
         <v>7</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C168" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D168" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="169" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4244,13 +4249,13 @@
         <v>7</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C169" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D169" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="170" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4258,13 +4263,13 @@
         <v>7</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C170" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D170" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="171" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4272,13 +4277,13 @@
         <v>7</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C171" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D171" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="172" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4286,13 +4291,13 @@
         <v>7</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C172" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D172" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G172" s="3"/>
     </row>
@@ -4301,13 +4306,13 @@
         <v>7</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C173" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D173" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G173" s="3"/>
     </row>
@@ -4316,13 +4321,13 @@
         <v>7</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C174" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D174" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G174" s="3"/>
     </row>
@@ -4331,13 +4336,13 @@
         <v>7</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C175" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D175" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G175" s="3"/>
     </row>
@@ -4346,13 +4351,13 @@
         <v>7</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C176" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D176" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G176" s="3"/>
     </row>
@@ -4361,13 +4366,13 @@
         <v>8</v>
       </c>
       <c r="B177" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C177" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D177" s="1" t="s">
         <v>182</v>
-      </c>
-      <c r="C177" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D177" s="1" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="178" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4375,13 +4380,13 @@
         <v>8</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C178" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D178" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="179" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4389,13 +4394,13 @@
         <v>8</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C179" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D179" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="180" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4403,13 +4408,13 @@
         <v>8</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C180" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D180" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="181" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4417,13 +4422,13 @@
         <v>8</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C181" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D181" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="182" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4431,13 +4436,13 @@
         <v>8</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C182" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D182" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G182" s="3"/>
     </row>
@@ -4446,13 +4451,13 @@
         <v>8</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C183" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D183" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G183" s="3"/>
     </row>
@@ -4461,13 +4466,13 @@
         <v>8</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C184" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D184" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G184" s="3"/>
     </row>
@@ -4476,13 +4481,13 @@
         <v>8</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C185" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D185" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G185" s="3"/>
     </row>
@@ -4491,13 +4496,13 @@
         <v>8</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C186" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D186" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G186" s="3"/>
     </row>
@@ -4506,13 +4511,13 @@
         <v>8</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C187" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D187" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G187" s="3"/>
     </row>
@@ -4521,13 +4526,13 @@
         <v>8</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C188" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D188" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G188" s="3"/>
     </row>
@@ -4536,13 +4541,13 @@
         <v>8</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C189" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D189" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G189" s="3"/>
     </row>
@@ -4551,13 +4556,13 @@
         <v>8</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C190" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D190" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G190" s="3"/>
     </row>
@@ -4566,13 +4571,13 @@
         <v>8</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C191" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D191" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G191" s="3"/>
     </row>
@@ -4581,13 +4586,13 @@
         <v>8</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C192" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D192" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="193" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4595,13 +4600,13 @@
         <v>8</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C193" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D193" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="194" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4609,13 +4614,13 @@
         <v>8</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C194" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D194" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="195" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4623,13 +4628,13 @@
         <v>8</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C195" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D195" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="196" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4637,13 +4642,13 @@
         <v>8</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C196" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D196" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="197" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4651,13 +4656,13 @@
         <v>8</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C197" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D197" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G197" s="3"/>
     </row>
@@ -4666,13 +4671,13 @@
         <v>8</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C198" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D198" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G198" s="3"/>
     </row>
@@ -4681,13 +4686,13 @@
         <v>8</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C199" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D199" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G199" s="3"/>
     </row>
@@ -4696,13 +4701,13 @@
         <v>8</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C200" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D200" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G200" s="3"/>
     </row>
@@ -4711,13 +4716,13 @@
         <v>8</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C201" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D201" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G201" s="3"/>
     </row>
@@ -4729,10 +4734,10 @@
         <v>4</v>
       </c>
       <c r="C202" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="D202" s="1" t="s">
         <v>208</v>
-      </c>
-      <c r="D202" s="1" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="203" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4743,10 +4748,10 @@
         <v>4</v>
       </c>
       <c r="C203" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D203" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="204" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4757,10 +4762,10 @@
         <v>4</v>
       </c>
       <c r="C204" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D204" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="205" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4771,10 +4776,10 @@
         <v>4</v>
       </c>
       <c r="C205" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D205" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="206" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4785,10 +4790,10 @@
         <v>4</v>
       </c>
       <c r="C206" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D206" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="207" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4799,10 +4804,10 @@
         <v>4</v>
       </c>
       <c r="C207" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D207" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="208" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4813,10 +4818,10 @@
         <v>4</v>
       </c>
       <c r="C208" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D208" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="209" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4827,10 +4832,10 @@
         <v>4</v>
       </c>
       <c r="C209" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D209" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="210" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4841,10 +4846,10 @@
         <v>4</v>
       </c>
       <c r="C210" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D210" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="211" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4855,10 +4860,10 @@
         <v>4</v>
       </c>
       <c r="C211" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D211" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="212" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4869,10 +4874,10 @@
         <v>4</v>
       </c>
       <c r="C212" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D212" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="213" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4883,10 +4888,10 @@
         <v>4</v>
       </c>
       <c r="C213" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D213" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="214" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4897,10 +4902,10 @@
         <v>4</v>
       </c>
       <c r="C214" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D214" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="215" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4911,10 +4916,10 @@
         <v>4</v>
       </c>
       <c r="C215" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D215" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="216" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4925,10 +4930,10 @@
         <v>4</v>
       </c>
       <c r="C216" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D216" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="217" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4939,10 +4944,10 @@
         <v>4</v>
       </c>
       <c r="C217" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D217" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="218" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4953,10 +4958,10 @@
         <v>4</v>
       </c>
       <c r="C218" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D218" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="219" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4967,10 +4972,10 @@
         <v>4</v>
       </c>
       <c r="C219" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D219" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="220" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4981,10 +4986,10 @@
         <v>4</v>
       </c>
       <c r="C220" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D220" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="221" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4995,10 +5000,10 @@
         <v>4</v>
       </c>
       <c r="C221" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D221" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="222" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5009,10 +5014,10 @@
         <v>4</v>
       </c>
       <c r="C222" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D222" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="223" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5023,10 +5028,10 @@
         <v>4</v>
       </c>
       <c r="C223" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D223" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="224" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5037,10 +5042,10 @@
         <v>4</v>
       </c>
       <c r="C224" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D224" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="225" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5051,10 +5056,10 @@
         <v>4</v>
       </c>
       <c r="C225" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D225" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="226" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5065,10 +5070,10 @@
         <v>4</v>
       </c>
       <c r="C226" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D226" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="227" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5079,10 +5084,10 @@
         <v>31</v>
       </c>
       <c r="C227" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D227" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="228" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5093,10 +5098,10 @@
         <v>31</v>
       </c>
       <c r="C228" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D228" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="229" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5107,10 +5112,10 @@
         <v>31</v>
       </c>
       <c r="C229" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D229" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="230" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5121,10 +5126,10 @@
         <v>31</v>
       </c>
       <c r="C230" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D230" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="231" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5135,10 +5140,10 @@
         <v>31</v>
       </c>
       <c r="C231" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D231" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="232" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5149,10 +5154,10 @@
         <v>31</v>
       </c>
       <c r="C232" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D232" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="233" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5163,10 +5168,10 @@
         <v>31</v>
       </c>
       <c r="C233" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D233" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="234" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5177,10 +5182,10 @@
         <v>31</v>
       </c>
       <c r="C234" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D234" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="235" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5191,10 +5196,10 @@
         <v>31</v>
       </c>
       <c r="C235" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D235" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="236" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5205,10 +5210,10 @@
         <v>31</v>
       </c>
       <c r="C236" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D236" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="237" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5219,10 +5224,10 @@
         <v>31</v>
       </c>
       <c r="C237" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D237" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="238" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5233,10 +5238,10 @@
         <v>31</v>
       </c>
       <c r="C238" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D238" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="239" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5247,10 +5252,10 @@
         <v>31</v>
       </c>
       <c r="C239" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D239" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="240" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5261,10 +5266,10 @@
         <v>31</v>
       </c>
       <c r="C240" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D240" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="241" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5275,10 +5280,10 @@
         <v>31</v>
       </c>
       <c r="C241" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D241" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="242" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5289,10 +5294,10 @@
         <v>31</v>
       </c>
       <c r="C242" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D242" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="243" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5303,10 +5308,10 @@
         <v>31</v>
       </c>
       <c r="C243" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D243" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="244" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5317,10 +5322,10 @@
         <v>31</v>
       </c>
       <c r="C244" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D244" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="245" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5331,10 +5336,10 @@
         <v>31</v>
       </c>
       <c r="C245" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D245" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="246" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5345,10 +5350,10 @@
         <v>31</v>
       </c>
       <c r="C246" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D246" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="247" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5359,10 +5364,10 @@
         <v>31</v>
       </c>
       <c r="C247" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D247" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="248" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5373,10 +5378,10 @@
         <v>53</v>
       </c>
       <c r="C248" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D248" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="249" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5387,10 +5392,10 @@
         <v>53</v>
       </c>
       <c r="C249" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D249" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="250" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5401,10 +5406,10 @@
         <v>53</v>
       </c>
       <c r="C250" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D250" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="251" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5415,10 +5420,10 @@
         <v>53</v>
       </c>
       <c r="C251" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D251" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="252" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5429,10 +5434,10 @@
         <v>53</v>
       </c>
       <c r="C252" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D252" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="253" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5443,10 +5448,10 @@
         <v>53</v>
       </c>
       <c r="C253" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D253" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="254" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5457,10 +5462,10 @@
         <v>53</v>
       </c>
       <c r="C254" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D254" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="255" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5471,10 +5476,10 @@
         <v>53</v>
       </c>
       <c r="C255" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D255" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="256" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5485,10 +5490,10 @@
         <v>53</v>
       </c>
       <c r="C256" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D256" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="257" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5499,10 +5504,10 @@
         <v>53</v>
       </c>
       <c r="C257" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D257" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="258" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5513,10 +5518,10 @@
         <v>53</v>
       </c>
       <c r="C258" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D258" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="259" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5527,10 +5532,10 @@
         <v>53</v>
       </c>
       <c r="C259" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D259" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="260" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5541,10 +5546,10 @@
         <v>53</v>
       </c>
       <c r="C260" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D260" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="261" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5555,10 +5560,10 @@
         <v>53</v>
       </c>
       <c r="C261" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D261" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="262" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5569,10 +5574,10 @@
         <v>53</v>
       </c>
       <c r="C262" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D262" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="263" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5583,10 +5588,10 @@
         <v>53</v>
       </c>
       <c r="C263" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D263" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="264" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5597,10 +5602,10 @@
         <v>53</v>
       </c>
       <c r="C264" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D264" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="265" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5611,10 +5616,10 @@
         <v>53</v>
       </c>
       <c r="C265" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D265" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="266" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5625,10 +5630,10 @@
         <v>53</v>
       </c>
       <c r="C266" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D266" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="267" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5639,10 +5644,10 @@
         <v>53</v>
       </c>
       <c r="C267" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D267" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="268" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5653,10 +5658,10 @@
         <v>53</v>
       </c>
       <c r="C268" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D268" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="269" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5667,10 +5672,10 @@
         <v>53</v>
       </c>
       <c r="C269" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D269" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="270" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5681,10 +5686,10 @@
         <v>53</v>
       </c>
       <c r="C270" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D270" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="271" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5695,10 +5700,10 @@
         <v>53</v>
       </c>
       <c r="C271" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D271" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="272" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5709,10 +5714,10 @@
         <v>53</v>
       </c>
       <c r="C272" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D272" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="273" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5723,10 +5728,10 @@
         <v>53</v>
       </c>
       <c r="C273" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D273" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="274" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5737,10 +5742,10 @@
         <v>53</v>
       </c>
       <c r="C274" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D274" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="275" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5751,10 +5756,10 @@
         <v>53</v>
       </c>
       <c r="C275" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D275" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="276" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5765,10 +5770,10 @@
         <v>53</v>
       </c>
       <c r="C276" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D276" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="277" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5776,13 +5781,13 @@
         <v>4</v>
       </c>
       <c r="B277" s="1" t="s">
-        <v>83</v>
+        <v>462</v>
       </c>
       <c r="C277" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D277" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="278" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5790,13 +5795,13 @@
         <v>4</v>
       </c>
       <c r="B278" s="1" t="s">
-        <v>83</v>
+        <v>462</v>
       </c>
       <c r="C278" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D278" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="279" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5804,13 +5809,13 @@
         <v>4</v>
       </c>
       <c r="B279" s="1" t="s">
-        <v>83</v>
+        <v>462</v>
       </c>
       <c r="C279" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D279" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="280" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5818,13 +5823,13 @@
         <v>4</v>
       </c>
       <c r="B280" s="1" t="s">
-        <v>83</v>
+        <v>462</v>
       </c>
       <c r="C280" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D280" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="281" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5832,13 +5837,13 @@
         <v>4</v>
       </c>
       <c r="B281" s="1" t="s">
-        <v>83</v>
+        <v>462</v>
       </c>
       <c r="C281" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D281" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="282" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5846,13 +5851,13 @@
         <v>4</v>
       </c>
       <c r="B282" s="1" t="s">
-        <v>83</v>
+        <v>462</v>
       </c>
       <c r="C282" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D282" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="283" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5860,13 +5865,13 @@
         <v>4</v>
       </c>
       <c r="B283" s="1" t="s">
-        <v>83</v>
+        <v>462</v>
       </c>
       <c r="C283" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D283" s="2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="284" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5874,13 +5879,13 @@
         <v>4</v>
       </c>
       <c r="B284" s="1" t="s">
-        <v>83</v>
+        <v>462</v>
       </c>
       <c r="C284" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D284" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="285" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5888,13 +5893,13 @@
         <v>4</v>
       </c>
       <c r="B285" s="1" t="s">
-        <v>83</v>
+        <v>462</v>
       </c>
       <c r="C285" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D285" s="2" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="286" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5902,13 +5907,13 @@
         <v>4</v>
       </c>
       <c r="B286" s="1" t="s">
-        <v>83</v>
+        <v>462</v>
       </c>
       <c r="C286" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D286" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="287" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5916,13 +5921,13 @@
         <v>4</v>
       </c>
       <c r="B287" s="1" t="s">
-        <v>83</v>
+        <v>462</v>
       </c>
       <c r="C287" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D287" s="2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="288" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5930,13 +5935,13 @@
         <v>4</v>
       </c>
       <c r="B288" s="1" t="s">
-        <v>83</v>
+        <v>462</v>
       </c>
       <c r="C288" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D288" s="2" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="289" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5944,13 +5949,13 @@
         <v>4</v>
       </c>
       <c r="B289" s="1" t="s">
-        <v>83</v>
+        <v>462</v>
       </c>
       <c r="C289" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D289" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="290" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5958,13 +5963,13 @@
         <v>4</v>
       </c>
       <c r="B290" s="1" t="s">
-        <v>83</v>
+        <v>462</v>
       </c>
       <c r="C290" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D290" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="291" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5972,13 +5977,13 @@
         <v>4</v>
       </c>
       <c r="B291" s="1" t="s">
-        <v>83</v>
+        <v>462</v>
       </c>
       <c r="C291" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D291" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="292" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5986,13 +5991,13 @@
         <v>4</v>
       </c>
       <c r="B292" s="1" t="s">
-        <v>83</v>
+        <v>462</v>
       </c>
       <c r="C292" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D292" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="293" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6000,13 +6005,13 @@
         <v>4</v>
       </c>
       <c r="B293" s="1" t="s">
-        <v>83</v>
+        <v>462</v>
       </c>
       <c r="C293" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D293" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="294" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6014,13 +6019,13 @@
         <v>4</v>
       </c>
       <c r="B294" s="1" t="s">
-        <v>83</v>
+        <v>462</v>
       </c>
       <c r="C294" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D294" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="295" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6028,13 +6033,13 @@
         <v>4</v>
       </c>
       <c r="B295" s="1" t="s">
-        <v>83</v>
+        <v>462</v>
       </c>
       <c r="C295" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D295" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="296" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6042,13 +6047,13 @@
         <v>4</v>
       </c>
       <c r="B296" s="1" t="s">
-        <v>83</v>
+        <v>462</v>
       </c>
       <c r="C296" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D296" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="297" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6056,13 +6061,13 @@
         <v>4</v>
       </c>
       <c r="B297" s="1" t="s">
-        <v>83</v>
+        <v>462</v>
       </c>
       <c r="C297" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D297" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="298" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6070,13 +6075,13 @@
         <v>4</v>
       </c>
       <c r="B298" s="1" t="s">
-        <v>83</v>
+        <v>462</v>
       </c>
       <c r="C298" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D298" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="299" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6084,13 +6089,13 @@
         <v>4</v>
       </c>
       <c r="B299" s="1" t="s">
-        <v>83</v>
+        <v>462</v>
       </c>
       <c r="C299" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D299" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="300" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6098,13 +6103,13 @@
         <v>4</v>
       </c>
       <c r="B300" s="1" t="s">
-        <v>83</v>
+        <v>462</v>
       </c>
       <c r="C300" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D300" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="301" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6112,13 +6117,13 @@
         <v>4</v>
       </c>
       <c r="B301" s="1" t="s">
-        <v>83</v>
+        <v>462</v>
       </c>
       <c r="C301" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D301" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="302" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6126,13 +6131,13 @@
         <v>5</v>
       </c>
       <c r="B302" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C302" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D302" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="303" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6140,13 +6145,13 @@
         <v>5</v>
       </c>
       <c r="B303" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C303" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D303" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="304" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6154,13 +6159,13 @@
         <v>5</v>
       </c>
       <c r="B304" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C304" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D304" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="305" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6168,13 +6173,13 @@
         <v>5</v>
       </c>
       <c r="B305" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C305" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D305" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="306" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6182,13 +6187,13 @@
         <v>5</v>
       </c>
       <c r="B306" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C306" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D306" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="307" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6196,13 +6201,13 @@
         <v>5</v>
       </c>
       <c r="B307" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C307" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D307" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="308" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6210,13 +6215,13 @@
         <v>5</v>
       </c>
       <c r="B308" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C308" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D308" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="309" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6224,13 +6229,13 @@
         <v>5</v>
       </c>
       <c r="B309" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C309" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D309" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="310" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6238,13 +6243,13 @@
         <v>5</v>
       </c>
       <c r="B310" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C310" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D310" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="311" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6252,13 +6257,13 @@
         <v>5</v>
       </c>
       <c r="B311" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C311" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D311" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="312" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6266,13 +6271,13 @@
         <v>5</v>
       </c>
       <c r="B312" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C312" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D312" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="313" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6280,13 +6285,13 @@
         <v>5</v>
       </c>
       <c r="B313" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C313" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D313" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="314" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6294,13 +6299,13 @@
         <v>5</v>
       </c>
       <c r="B314" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C314" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D314" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="315" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6308,13 +6313,13 @@
         <v>5</v>
       </c>
       <c r="B315" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C315" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D315" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="316" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6322,13 +6327,13 @@
         <v>5</v>
       </c>
       <c r="B316" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C316" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D316" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="317" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6336,13 +6341,13 @@
         <v>5</v>
       </c>
       <c r="B317" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C317" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D317" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="318" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6350,13 +6355,13 @@
         <v>5</v>
       </c>
       <c r="B318" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C318" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D318" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="319" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6364,13 +6369,13 @@
         <v>5</v>
       </c>
       <c r="B319" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C319" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D319" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="320" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6378,13 +6383,13 @@
         <v>5</v>
       </c>
       <c r="B320" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C320" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D320" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="321" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6392,13 +6397,13 @@
         <v>5</v>
       </c>
       <c r="B321" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C321" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D321" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="322" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6406,13 +6411,13 @@
         <v>5</v>
       </c>
       <c r="B322" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C322" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D322" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="323" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6420,13 +6425,13 @@
         <v>5</v>
       </c>
       <c r="B323" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C323" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D323" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="324" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6434,13 +6439,13 @@
         <v>5</v>
       </c>
       <c r="B324" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C324" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D324" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="325" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6448,13 +6453,13 @@
         <v>5</v>
       </c>
       <c r="B325" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C325" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D325" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="326" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6462,13 +6467,13 @@
         <v>5</v>
       </c>
       <c r="B326" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C326" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D326" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="327" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6476,13 +6481,13 @@
         <v>6</v>
       </c>
       <c r="B327" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C327" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D327" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="328" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6490,13 +6495,13 @@
         <v>6</v>
       </c>
       <c r="B328" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C328" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D328" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="329" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6504,13 +6509,13 @@
         <v>6</v>
       </c>
       <c r="B329" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C329" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D329" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="330" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6518,13 +6523,13 @@
         <v>6</v>
       </c>
       <c r="B330" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C330" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D330" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="331" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6532,13 +6537,13 @@
         <v>6</v>
       </c>
       <c r="B331" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C331" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D331" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="332" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6546,13 +6551,13 @@
         <v>6</v>
       </c>
       <c r="B332" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C332" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D332" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="333" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6560,13 +6565,13 @@
         <v>6</v>
       </c>
       <c r="B333" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C333" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D333" s="2" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="334" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6574,13 +6579,13 @@
         <v>6</v>
       </c>
       <c r="B334" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C334" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D334" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="335" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6588,13 +6593,13 @@
         <v>6</v>
       </c>
       <c r="B335" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C335" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D335" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="336" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6602,13 +6607,13 @@
         <v>6</v>
       </c>
       <c r="B336" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C336" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D336" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="337" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6616,13 +6621,13 @@
         <v>6</v>
       </c>
       <c r="B337" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C337" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D337" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="338" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6630,13 +6635,13 @@
         <v>6</v>
       </c>
       <c r="B338" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C338" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D338" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="339" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6644,13 +6649,13 @@
         <v>6</v>
       </c>
       <c r="B339" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C339" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D339" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="340" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6658,13 +6663,13 @@
         <v>6</v>
       </c>
       <c r="B340" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C340" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D340" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="341" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6672,13 +6677,13 @@
         <v>6</v>
       </c>
       <c r="B341" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C341" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D341" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="342" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6686,13 +6691,13 @@
         <v>6</v>
       </c>
       <c r="B342" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C342" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D342" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="343" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6700,13 +6705,13 @@
         <v>6</v>
       </c>
       <c r="B343" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C343" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D343" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="344" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6714,13 +6719,13 @@
         <v>6</v>
       </c>
       <c r="B344" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C344" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D344" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="345" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6728,13 +6733,13 @@
         <v>6</v>
       </c>
       <c r="B345" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C345" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D345" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="346" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6742,13 +6747,13 @@
         <v>6</v>
       </c>
       <c r="B346" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C346" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D346" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="347" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6756,13 +6761,13 @@
         <v>6</v>
       </c>
       <c r="B347" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C347" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D347" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="348" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6770,13 +6775,13 @@
         <v>6</v>
       </c>
       <c r="B348" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C348" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D348" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="349" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6784,13 +6789,13 @@
         <v>6</v>
       </c>
       <c r="B349" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C349" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D349" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="350" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6798,13 +6803,13 @@
         <v>6</v>
       </c>
       <c r="B350" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C350" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D350" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="351" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6812,13 +6817,13 @@
         <v>6</v>
       </c>
       <c r="B351" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C351" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D351" s="1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="352" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6826,13 +6831,13 @@
         <v>7</v>
       </c>
       <c r="B352" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C352" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D352" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="353" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6840,13 +6845,13 @@
         <v>7</v>
       </c>
       <c r="B353" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C353" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D353" s="2" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="354" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6854,13 +6859,13 @@
         <v>7</v>
       </c>
       <c r="B354" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C354" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D354" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="355" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6868,13 +6873,13 @@
         <v>7</v>
       </c>
       <c r="B355" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C355" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D355" s="2" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="356" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6882,13 +6887,13 @@
         <v>7</v>
       </c>
       <c r="B356" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C356" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D356" s="2" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="357" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6896,13 +6901,13 @@
         <v>7</v>
       </c>
       <c r="B357" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C357" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D357" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="358" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6910,13 +6915,13 @@
         <v>7</v>
       </c>
       <c r="B358" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C358" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D358" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="359" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6924,13 +6929,13 @@
         <v>7</v>
       </c>
       <c r="B359" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C359" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D359" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="360" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6938,13 +6943,13 @@
         <v>7</v>
       </c>
       <c r="B360" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C360" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D360" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="361" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6952,13 +6957,13 @@
         <v>7</v>
       </c>
       <c r="B361" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C361" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D361" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="362" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6966,13 +6971,13 @@
         <v>7</v>
       </c>
       <c r="B362" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C362" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D362" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="363" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6980,13 +6985,13 @@
         <v>7</v>
       </c>
       <c r="B363" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C363" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D363" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="364" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6994,13 +6999,13 @@
         <v>7</v>
       </c>
       <c r="B364" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C364" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D364" s="1" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="365" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7008,13 +7013,13 @@
         <v>7</v>
       </c>
       <c r="B365" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C365" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D365" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="366" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7022,13 +7027,13 @@
         <v>7</v>
       </c>
       <c r="B366" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C366" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D366" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="367" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7036,13 +7041,13 @@
         <v>7</v>
       </c>
       <c r="B367" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C367" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D367" s="1" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="368" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7050,13 +7055,13 @@
         <v>7</v>
       </c>
       <c r="B368" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C368" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D368" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="369" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7064,13 +7069,13 @@
         <v>7</v>
       </c>
       <c r="B369" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C369" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D369" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="370" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7078,13 +7083,13 @@
         <v>7</v>
       </c>
       <c r="B370" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C370" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D370" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="371" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7092,13 +7097,13 @@
         <v>7</v>
       </c>
       <c r="B371" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C371" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D371" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="372" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7106,13 +7111,13 @@
         <v>7</v>
       </c>
       <c r="B372" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C372" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D372" s="2" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="373" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7120,13 +7125,13 @@
         <v>7</v>
       </c>
       <c r="B373" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C373" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D373" s="2" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="374" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7134,13 +7139,13 @@
         <v>7</v>
       </c>
       <c r="B374" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C374" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D374" s="2" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="375" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7148,13 +7153,13 @@
         <v>7</v>
       </c>
       <c r="B375" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C375" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D375" s="2" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="376" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7162,13 +7167,13 @@
         <v>7</v>
       </c>
       <c r="B376" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C376" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D376" s="2" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="377" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7176,13 +7181,13 @@
         <v>8</v>
       </c>
       <c r="B377" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C377" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D377" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="378" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7190,13 +7195,13 @@
         <v>8</v>
       </c>
       <c r="B378" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C378" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D378" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="379" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7204,13 +7209,13 @@
         <v>8</v>
       </c>
       <c r="B379" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C379" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D379" s="1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="380" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7218,13 +7223,13 @@
         <v>8</v>
       </c>
       <c r="B380" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C380" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D380" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="381" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7232,13 +7237,13 @@
         <v>8</v>
       </c>
       <c r="B381" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C381" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D381" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="382" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7246,13 +7251,13 @@
         <v>8</v>
       </c>
       <c r="B382" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C382" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D382" s="2" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="383" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7260,13 +7265,13 @@
         <v>8</v>
       </c>
       <c r="B383" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C383" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D383" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="384" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7274,13 +7279,13 @@
         <v>8</v>
       </c>
       <c r="B384" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C384" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D384" s="2" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="385" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7288,13 +7293,13 @@
         <v>8</v>
       </c>
       <c r="B385" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C385" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D385" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="386" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7302,13 +7307,13 @@
         <v>8</v>
       </c>
       <c r="B386" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C386" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D386" s="2" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="387" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7316,13 +7321,13 @@
         <v>8</v>
       </c>
       <c r="B387" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C387" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D387" s="2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="388" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7330,13 +7335,13 @@
         <v>8</v>
       </c>
       <c r="B388" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C388" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D388" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="389" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7344,13 +7349,13 @@
         <v>8</v>
       </c>
       <c r="B389" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C389" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D389" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="390" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7358,13 +7363,13 @@
         <v>8</v>
       </c>
       <c r="B390" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C390" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D390" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="391" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7372,13 +7377,13 @@
         <v>8</v>
       </c>
       <c r="B391" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C391" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D391" s="2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="392" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7386,13 +7391,13 @@
         <v>8</v>
       </c>
       <c r="B392" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C392" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D392" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="393" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7400,13 +7405,13 @@
         <v>8</v>
       </c>
       <c r="B393" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C393" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D393" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="394" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7414,13 +7419,13 @@
         <v>8</v>
       </c>
       <c r="B394" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C394" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D394" s="1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="395" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7428,13 +7433,13 @@
         <v>8</v>
       </c>
       <c r="B395" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C395" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D395" s="1" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="396" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7442,13 +7447,13 @@
         <v>8</v>
       </c>
       <c r="B396" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C396" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D396" s="1" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="397" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7456,13 +7461,13 @@
         <v>8</v>
       </c>
       <c r="B397" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C397" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D397" s="2" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="398" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7470,13 +7475,13 @@
         <v>8</v>
       </c>
       <c r="B398" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C398" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D398" s="2" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="399" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7484,13 +7489,13 @@
         <v>8</v>
       </c>
       <c r="B399" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C399" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D399" s="2" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="400" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7498,13 +7503,13 @@
         <v>8</v>
       </c>
       <c r="B400" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C400" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D400" s="2" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="401" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7512,13 +7517,13 @@
         <v>8</v>
       </c>
       <c r="B401" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C401" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D401" s="2" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="402" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7532,7 +7537,7 @@
         <v>5</v>
       </c>
       <c r="D402" s="1" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="403" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7546,7 +7551,7 @@
         <v>5</v>
       </c>
       <c r="D403" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="404" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7560,7 +7565,7 @@
         <v>5</v>
       </c>
       <c r="D404" s="1" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="405" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7574,7 +7579,7 @@
         <v>5</v>
       </c>
       <c r="D405" s="1" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="406" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7588,7 +7593,7 @@
         <v>5</v>
       </c>
       <c r="D406" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="407" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7602,7 +7607,7 @@
         <v>5</v>
       </c>
       <c r="D407" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="408" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7616,7 +7621,7 @@
         <v>5</v>
       </c>
       <c r="D408" s="1" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="409" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7630,7 +7635,7 @@
         <v>5</v>
       </c>
       <c r="D409" s="1" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="410" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7644,7 +7649,7 @@
         <v>5</v>
       </c>
       <c r="D410" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="411" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7658,7 +7663,7 @@
         <v>5</v>
       </c>
       <c r="D411" s="1" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="412" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7672,7 +7677,7 @@
         <v>5</v>
       </c>
       <c r="D412" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="413" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7686,7 +7691,7 @@
         <v>5</v>
       </c>
       <c r="D413" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="414" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7700,7 +7705,7 @@
         <v>5</v>
       </c>
       <c r="D414" s="1" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="415" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7714,7 +7719,7 @@
         <v>5</v>
       </c>
       <c r="D415" s="1" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="416" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7728,7 +7733,7 @@
         <v>5</v>
       </c>
       <c r="D416" s="1" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="417" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7736,13 +7741,13 @@
         <v>4</v>
       </c>
       <c r="B417" s="1" t="s">
-        <v>83</v>
+        <v>462</v>
       </c>
       <c r="C417" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D417" s="1" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="418" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7750,13 +7755,13 @@
         <v>4</v>
       </c>
       <c r="B418" s="1" t="s">
-        <v>83</v>
+        <v>462</v>
       </c>
       <c r="C418" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D418" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="419" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7764,13 +7769,13 @@
         <v>4</v>
       </c>
       <c r="B419" s="1" t="s">
-        <v>83</v>
+        <v>462</v>
       </c>
       <c r="C419" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D419" s="1" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="420" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7778,13 +7783,13 @@
         <v>4</v>
       </c>
       <c r="B420" s="1" t="s">
-        <v>83</v>
+        <v>462</v>
       </c>
       <c r="C420" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D420" s="1" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="421" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7792,13 +7797,13 @@
         <v>4</v>
       </c>
       <c r="B421" s="1" t="s">
-        <v>83</v>
+        <v>462</v>
       </c>
       <c r="C421" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D421" s="1" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="422" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7806,13 +7811,13 @@
         <v>5</v>
       </c>
       <c r="B422" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C422" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D422" s="1" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="423" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7820,13 +7825,13 @@
         <v>5</v>
       </c>
       <c r="B423" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C423" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D423" s="1" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="424" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7834,13 +7839,13 @@
         <v>5</v>
       </c>
       <c r="B424" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C424" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D424" s="1" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="425" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7848,13 +7853,13 @@
         <v>5</v>
       </c>
       <c r="B425" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C425" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D425" s="1" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="426" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7862,13 +7867,13 @@
         <v>5</v>
       </c>
       <c r="B426" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C426" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D426" s="1" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="427" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7876,13 +7881,13 @@
         <v>6</v>
       </c>
       <c r="B427" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C427" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D427" s="1" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="428" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7890,13 +7895,13 @@
         <v>6</v>
       </c>
       <c r="B428" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C428" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D428" s="1" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="429" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7904,13 +7909,13 @@
         <v>6</v>
       </c>
       <c r="B429" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C429" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D429" s="1" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="430" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7918,13 +7923,13 @@
         <v>6</v>
       </c>
       <c r="B430" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C430" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D430" s="1" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="431" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7932,13 +7937,13 @@
         <v>6</v>
       </c>
       <c r="B431" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C431" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D431" s="1" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="432" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7946,13 +7951,13 @@
         <v>7</v>
       </c>
       <c r="B432" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C432" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D432" s="1" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="433" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7960,13 +7965,13 @@
         <v>7</v>
       </c>
       <c r="B433" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C433" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D433" s="1" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="434" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7974,13 +7979,13 @@
         <v>7</v>
       </c>
       <c r="B434" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C434" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D434" s="1" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="435" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7988,13 +7993,13 @@
         <v>7</v>
       </c>
       <c r="B435" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C435" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D435" s="1" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="436" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -8002,13 +8007,13 @@
         <v>7</v>
       </c>
       <c r="B436" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C436" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D436" s="1" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="437" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -8016,13 +8021,13 @@
         <v>8</v>
       </c>
       <c r="B437" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C437" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D437" s="1" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="438" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -8030,13 +8035,13 @@
         <v>8</v>
       </c>
       <c r="B438" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C438" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D438" s="1" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="439" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -8044,13 +8049,13 @@
         <v>8</v>
       </c>
       <c r="B439" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C439" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D439" s="1" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="440" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -8058,13 +8063,13 @@
         <v>8</v>
       </c>
       <c r="B440" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C440" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D440" s="1" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="441" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -8072,13 +8077,13 @@
         <v>8</v>
       </c>
       <c r="B441" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C441" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D441" s="1" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="442" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -11436,6 +11441,7 @@
       <c r="D1000" s="1"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:D441" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>
 </worksheet>
@@ -11459,57 +11465,57 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.2">
@@ -11533,7 +11539,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B078C27-7EE4-B743-80CF-585F416F2C3D}">
   <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -11545,13 +11551,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
+        <v>459</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>460</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="C1" s="6" t="s">
         <v>461</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>462</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
